--- a/G8_NguyenMinhTriet.xlsx
+++ b/G8_NguyenMinhTriet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\Downloads\HK1_2324\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{504929AD-CC58-4FF4-9F36-70222FE75D5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{242DF240-A9D7-4A2C-A47A-8D5577D2E2EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10546" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -704,6 +704,55 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -713,22 +762,10 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -758,43 +795,6 @@
     <xf numFmtId="0" fontId="9" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma 2" xfId="2" xr:uid="{BA089D81-9D86-4B4A-B7ED-FA4BCF9B0930}"/>
@@ -1114,8 +1114,8 @@
   <dimension ref="A1:H33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E29" sqref="E29"/>
+      <pane ySplit="2" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
@@ -1130,7 +1130,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15.4" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="32" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -1153,7 +1153,7 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="60"/>
+      <c r="A2" s="33"/>
       <c r="B2" s="6" t="s">
         <v>4</v>
       </c>
@@ -1168,7 +1168,7 @@
       </c>
       <c r="F2" s="7">
         <f>F3+F5+F8+F10+F14+F16+F17+F19+F20+F24</f>
-        <v>3.75</v>
+        <v>4.25</v>
       </c>
       <c r="H2" s="8">
         <f>H3+H5+H8+H10+H14+H16+H17+H19+H20+H24</f>
@@ -1176,36 +1176,36 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A3" s="59" t="s">
+      <c r="A3" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="59">
+      <c r="B3" s="32">
         <v>1</v>
       </c>
-      <c r="C3" s="55" t="s">
+      <c r="C3" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="55" t="s">
+      <c r="D3" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="57" t="s">
+      <c r="E3" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="49">
+      <c r="F3" s="36">
         <v>0.5</v>
       </c>
-      <c r="H3" s="50">
+      <c r="H3" s="37">
         <v>0.75</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="60"/>
-      <c r="B4" s="60"/>
-      <c r="C4" s="56"/>
-      <c r="D4" s="56"/>
-      <c r="E4" s="58"/>
-      <c r="F4" s="49"/>
-      <c r="H4" s="50"/>
+      <c r="A4" s="33"/>
+      <c r="B4" s="33"/>
+      <c r="C4" s="35"/>
+      <c r="D4" s="35"/>
+      <c r="E4" s="43"/>
+      <c r="F4" s="36"/>
+      <c r="H4" s="37"/>
     </row>
     <row r="5" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="11" t="s">
@@ -1263,36 +1263,36 @@
       <c r="H7" s="19"/>
     </row>
     <row r="8" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="53" t="s">
+      <c r="A8" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="34">
+      <c r="B8" s="40">
         <v>1</v>
       </c>
-      <c r="C8" s="55" t="s">
+      <c r="C8" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="55" t="s">
+      <c r="D8" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="E8" s="57" t="s">
+      <c r="E8" s="42" t="s">
         <v>24</v>
       </c>
-      <c r="F8" s="49">
+      <c r="F8" s="36">
         <v>0.5</v>
       </c>
-      <c r="H8" s="50">
+      <c r="H8" s="37">
         <v>0.75</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="54"/>
-      <c r="B9" s="36"/>
-      <c r="C9" s="56"/>
-      <c r="D9" s="56"/>
-      <c r="E9" s="58"/>
-      <c r="F9" s="49"/>
-      <c r="H9" s="50"/>
+      <c r="A9" s="39"/>
+      <c r="B9" s="41"/>
+      <c r="C9" s="35"/>
+      <c r="D9" s="35"/>
+      <c r="E9" s="43"/>
+      <c r="F9" s="36"/>
+      <c r="H9" s="37"/>
     </row>
     <row r="10" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A10" s="11" t="s">
@@ -1369,10 +1369,10 @@
       <c r="H13" s="19"/>
     </row>
     <row r="14" spans="1:8" ht="46.15" x14ac:dyDescent="0.35">
-      <c r="A14" s="34" t="s">
+      <c r="A14" s="40" t="s">
         <v>38</v>
       </c>
-      <c r="B14" s="34">
+      <c r="B14" s="40">
         <v>2</v>
       </c>
       <c r="C14" s="20" t="s">
@@ -1384,16 +1384,16 @@
       <c r="E14" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="F14" s="49">
+      <c r="F14" s="36">
         <v>0</v>
       </c>
-      <c r="H14" s="50">
+      <c r="H14" s="37">
         <v>0.75</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="36"/>
-      <c r="B15" s="36"/>
+      <c r="A15" s="41"/>
+      <c r="B15" s="41"/>
       <c r="C15" s="16" t="s">
         <v>42</v>
       </c>
@@ -1403,8 +1403,8 @@
       <c r="E15" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="F15" s="49"/>
-      <c r="H15" s="50"/>
+      <c r="F15" s="36"/>
+      <c r="H15" s="37"/>
     </row>
     <row r="16" spans="1:8" ht="31.15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A16" s="11" t="s">
@@ -1430,38 +1430,38 @@
       </c>
     </row>
     <row r="17" spans="1:8" ht="15.4" x14ac:dyDescent="0.35">
-      <c r="A17" s="34" t="s">
+      <c r="A17" s="40" t="s">
         <v>49</v>
       </c>
-      <c r="B17" s="34">
+      <c r="B17" s="40">
         <v>1</v>
       </c>
       <c r="C17" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="D17" s="37" t="s">
+      <c r="D17" s="44" t="s">
         <v>51</v>
       </c>
-      <c r="E17" s="51" t="s">
+      <c r="E17" s="46" t="s">
         <v>52</v>
       </c>
-      <c r="F17" s="49">
+      <c r="F17" s="36">
         <v>0.25</v>
       </c>
-      <c r="H17" s="50">
+      <c r="H17" s="37">
         <v>0.5</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="36"/>
-      <c r="B18" s="36"/>
+      <c r="A18" s="41"/>
+      <c r="B18" s="41"/>
       <c r="C18" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="D18" s="39"/>
-      <c r="E18" s="52"/>
-      <c r="F18" s="49"/>
-      <c r="H18" s="50"/>
+      <c r="D18" s="45"/>
+      <c r="E18" s="47"/>
+      <c r="F18" s="36"/>
+      <c r="H18" s="37"/>
     </row>
     <row r="19" spans="1:8" ht="31.15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A19" s="11" t="s">
@@ -1480,110 +1480,110 @@
         <v>57</v>
       </c>
       <c r="F19" s="9">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="H19" s="10">
         <v>0.75</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="15.4" x14ac:dyDescent="0.35">
-      <c r="A20" s="34" t="s">
+      <c r="A20" s="40" t="s">
         <v>58</v>
       </c>
-      <c r="B20" s="34">
+      <c r="B20" s="40">
         <v>1.5</v>
       </c>
       <c r="C20" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="D20" s="37" t="s">
+      <c r="D20" s="44" t="s">
         <v>60</v>
       </c>
       <c r="E20" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="F20" s="40">
+      <c r="F20" s="53">
         <v>0.75</v>
       </c>
-      <c r="H20" s="31">
+      <c r="H20" s="48">
         <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="46.15" x14ac:dyDescent="0.35">
-      <c r="A21" s="35"/>
-      <c r="B21" s="35"/>
+      <c r="A21" s="51"/>
+      <c r="B21" s="51"/>
       <c r="C21" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="D21" s="38"/>
+      <c r="D21" s="52"/>
       <c r="E21" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="F21" s="41"/>
-      <c r="H21" s="32"/>
+      <c r="F21" s="54"/>
+      <c r="H21" s="49"/>
     </row>
     <row r="22" spans="1:8" ht="15.4" x14ac:dyDescent="0.35">
-      <c r="A22" s="35"/>
-      <c r="B22" s="35"/>
+      <c r="A22" s="51"/>
+      <c r="B22" s="51"/>
       <c r="C22" s="23"/>
-      <c r="D22" s="38"/>
+      <c r="D22" s="52"/>
       <c r="E22" s="21" t="s">
         <v>64</v>
       </c>
-      <c r="F22" s="41"/>
-      <c r="H22" s="32"/>
+      <c r="F22" s="54"/>
+      <c r="H22" s="49"/>
     </row>
     <row r="23" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="36"/>
-      <c r="B23" s="36"/>
+      <c r="A23" s="41"/>
+      <c r="B23" s="41"/>
       <c r="C23" s="24"/>
-      <c r="D23" s="39"/>
+      <c r="D23" s="45"/>
       <c r="E23" s="22" t="s">
         <v>65</v>
       </c>
-      <c r="F23" s="42"/>
-      <c r="H23" s="33"/>
+      <c r="F23" s="55"/>
+      <c r="H23" s="50"/>
     </row>
     <row r="24" spans="1:8" ht="15.4" x14ac:dyDescent="0.35">
-      <c r="A24" s="43" t="s">
+      <c r="A24" s="56" t="s">
         <v>66</v>
       </c>
-      <c r="B24" s="43">
+      <c r="B24" s="56">
         <v>1</v>
       </c>
-      <c r="C24" s="46"/>
-      <c r="D24" s="46"/>
+      <c r="C24" s="59"/>
+      <c r="D24" s="59"/>
       <c r="E24" s="25" t="s">
         <v>67</v>
       </c>
-      <c r="F24" s="40">
+      <c r="F24" s="53">
         <v>0</v>
       </c>
-      <c r="H24" s="31">
+      <c r="H24" s="48">
         <v>0.5</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.4" x14ac:dyDescent="0.35">
-      <c r="A25" s="44"/>
-      <c r="B25" s="44"/>
-      <c r="C25" s="47"/>
-      <c r="D25" s="47"/>
+      <c r="A25" s="57"/>
+      <c r="B25" s="57"/>
+      <c r="C25" s="60"/>
+      <c r="D25" s="60"/>
       <c r="E25" s="25" t="s">
         <v>68</v>
       </c>
-      <c r="F25" s="41"/>
-      <c r="H25" s="32"/>
+      <c r="F25" s="54"/>
+      <c r="H25" s="49"/>
     </row>
     <row r="26" spans="1:8" ht="31.15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A26" s="45"/>
-      <c r="B26" s="45"/>
-      <c r="C26" s="48"/>
-      <c r="D26" s="48"/>
+      <c r="A26" s="58"/>
+      <c r="B26" s="58"/>
+      <c r="C26" s="61"/>
+      <c r="D26" s="61"/>
       <c r="E26" s="26" t="s">
         <v>69</v>
       </c>
-      <c r="F26" s="42"/>
-      <c r="H26" s="33"/>
+      <c r="F26" s="55"/>
+      <c r="H26" s="50"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.35">
       <c r="D28" s="29"/>
@@ -1599,7 +1599,7 @@
       <c r="D29" s="29" t="s">
         <v>75</v>
       </c>
-      <c r="E29" s="61">
+      <c r="E29" s="31">
         <v>1</v>
       </c>
     </row>
@@ -1644,31 +1644,6 @@
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="H17:H18"/>
     <mergeCell ref="H24:H26"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="B20:B23"/>
@@ -1680,6 +1655,31 @@
     <mergeCell ref="C24:C26"/>
     <mergeCell ref="D24:D26"/>
     <mergeCell ref="F24:F26"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="H17:H18"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
